--- a/psychopy/shared/loop-templates/loopStateMeasure.xlsx
+++ b/psychopy/shared/loop-templates/loopStateMeasure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\neuroflare-experiments\psychopy\shared\loop-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E74F4D-7168-4786-9462-F1A794E16654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384254C-D2DB-4DE4-9736-F865E0C64DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="8235" windowWidth="22845" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>rating_category</t>
   </si>
@@ -210,6 +210,27 @@
   </si>
   <si>
     <t>../../shared/pictures/sam-dominance.png</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>granularity</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10</t>
+  </si>
+  <si>
+    <t>tick_values</t>
   </si>
 </sst>
 </file>
@@ -603,19 +624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -623,19 +647,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -643,16 +676,25 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>28</v>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -660,16 +702,25 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -677,16 +728,25 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -694,16 +754,25 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
-        <v>31</v>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -711,19 +780,28 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>13</v>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -731,19 +809,28 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -751,21 +838,30 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
-        <v>15</v>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="B1:D1 F1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid variable name" error="Variable names need to start with a letter or an underscore (_), followed by only letters, numbers and underscores." sqref="B1:E1 G1:XFD1" xr:uid="{7CD88A1A-7D71-4B66-8FF3-B42FC0AD4334}">
       <formula1>AND(ISNUMBER(SUMPRODUCT(SEARCH(MID(B1,ROW(INDIRECT("1:"&amp;LEN(B1))),1),"0123456789abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_"))),ISNUMBER(SEARCH(LEFT(B1,1),"abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ_")),NOT(ISNUMBER(SEARCH("~*",B1))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -776,6 +872,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9F5CAB0486A994CA2C3B13E059EF2AE" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8645ec4a60d0c8c7009d2d6675847a91">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="636d7205651659ec4fcda0bcbde9384b">
     <xsd:element name="properties">
@@ -889,22 +1000,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF1C174-6AC6-4774-A736-3226A12360E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -918,27 +1037,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3744155D-8FAB-4E67-B5E0-C7FDBFB3715D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3725960-8A89-4E70-9C40-340E0EDB6403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>